--- a/maps/xtehr2zibs2024/DataSet-full.xlsx
+++ b/maps/xtehr2zibs2024/DataSet-full.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,47 +1176,15 @@
           <t>EHDSDataSet.header.subject</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>RegistrationData.InformationSource.Patient</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>RegistrationData.InformationSource.Patient</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NL: Patient</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>(0..1)</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>data,reference</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>NL-CM:22.1.16</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>The patient as information source</t>
-        </is>
-      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
@@ -1731,47 +1699,43 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RegistrationData.ReasonDataAbsent</t>
+          <t>RegistrationData.InformationSource.Patient</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ReasonDataAbsent</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>RegistrationData.ReasonDataAbsent</t>
+          <t>RegistrationData.InformationSource.Patient</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NL: RedenAfwezigheidGegevens</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
+          <t>NL: Patient</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0..1</t>
+          <t>(0..1)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>data,reference</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>NL-CM:22.1.10</t>
+          <t>NL-CM:22.1.16</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Reason why no data is available for the value of a concept. This includes, for example, all 'Unknown' variants, but also 'Indeterminate', 'Specimen unsatisfactory', etc.</t>
+          <t>The patient as information source</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1787,27 +1751,27 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RegistrationData.ReasonForClosing</t>
+          <t>RegistrationData.ReasonDataAbsent</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ReasonForClosing</t>
+          <t>ReasonDataAbsent</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>RegistrationData.ReasonForClosing</t>
+          <t>RegistrationData.ReasonDataAbsent</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NL: RedenVanAfsluiten</t>
+          <t>NL: RedenAfwezigheidGegevens</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1822,12 +1786,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>NL-CM:22.1.6</t>
+          <t>NL-CM:22.1.10</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Reason why updating the information, or following changes in the the concept in question is no longer considered relevant. For example, in the case of a condition, this does not mean that the disease is no longer present, but merely that the holder of the patients record no longer considers the condition as an aspect to be taken into account during care provision.</t>
+          <t>Reason why no data is available for the value of a concept. This includes, for example, all 'Unknown' variants, but also 'Indeterminate', 'Specimen unsatisfactory', etc.</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1843,22 +1807,22 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RegistrationData.RegistrationReason</t>
+          <t>RegistrationData.ReasonForClosing</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RegistrationReason</t>
+          <t>ReasonForClosing</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>RegistrationData.RegistrationReason</t>
+          <t>RegistrationData.ReasonForClosing</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NL: RedenVanVastleggen</t>
+          <t>NL: RedenVanAfsluiten</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1878,12 +1842,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>NL-CM:22.1.4</t>
+          <t>NL-CM:22.1.6</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Description of the reason for including the information in the patient record.</t>
+          <t>Reason why updating the information, or following changes in the the concept in question is no longer considered relevant. For example, in the case of a condition, this does not mean that the disease is no longer present, but merely that the holder of the patients record no longer considers the condition as an aspect to be taken into account during care provision.</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1895,6 +1859,62 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>RegistrationData.RegistrationReason</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>RegistrationReason</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>RegistrationData.RegistrationReason</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NL: RedenVanVastleggen</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0..1</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>NL-CM:22.1.4</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Description of the reason for including the information in the patient record.</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/maps/xtehr2zibs2024/DataSet-full.xlsx
+++ b/maps/xtehr2zibs2024/DataSet-full.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,47 +1176,15 @@
           <t>EHDSDataSet.header.subject</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>RegistrationData.InformationSource.Patient</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>RegistrationData.InformationSource.Patient</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NL: Patient</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>(0..1)</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>data,reference</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>NL-CM:22.1.16</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>The patient as information source</t>
-        </is>
-      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
@@ -1731,47 +1699,43 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RegistrationData.ReasonDataAbsent</t>
+          <t>RegistrationData.InformationSource.Patient</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ReasonDataAbsent</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>RegistrationData.ReasonDataAbsent</t>
+          <t>RegistrationData.InformationSource.Patient</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NL: RedenAfwezigheidGegevens</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
+          <t>NL: Patient</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0..1</t>
+          <t>(0..1)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>data,reference</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>NL-CM:22.1.10</t>
+          <t>NL-CM:22.1.16</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Reason why no data is available for the value of a concept. This includes, for example, all 'Unknown' variants, but also 'Indeterminate', 'Specimen unsatisfactory', etc.</t>
+          <t>The patient as information source</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1787,27 +1751,27 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RegistrationData.ReasonForClosing</t>
+          <t>RegistrationData.ReasonDataAbsent</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ReasonForClosing</t>
+          <t>ReasonDataAbsent</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>RegistrationData.ReasonForClosing</t>
+          <t>RegistrationData.ReasonDataAbsent</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NL: RedenVanAfsluiten</t>
+          <t>NL: RedenAfwezigheidGegevens</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1822,12 +1786,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>NL-CM:22.1.6</t>
+          <t>NL-CM:22.1.10</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Reason why updating the information, or following changes in the the concept in question is no longer considered relevant. For example, in the case of a condition, this does not mean that the disease is no longer present, but merely that the holder of the patients record no longer considers the condition as an aspect to be taken into account during care provision.</t>
+          <t>Reason why no data is available for the value of a concept. This includes, for example, all 'Unknown' variants, but also 'Indeterminate', 'Specimen unsatisfactory', etc.</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1843,22 +1807,22 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RegistrationData.RegistrationReason</t>
+          <t>RegistrationData.ReasonForClosing</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RegistrationReason</t>
+          <t>ReasonForClosing</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>RegistrationData.RegistrationReason</t>
+          <t>RegistrationData.ReasonForClosing</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NL: RedenVanVastleggen</t>
+          <t>NL: RedenVanAfsluiten</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1878,12 +1842,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>NL-CM:22.1.4</t>
+          <t>NL-CM:22.1.6</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Description of the reason for including the information in the patient record.</t>
+          <t>Reason why updating the information, or following changes in the the concept in question is no longer considered relevant. For example, in the case of a condition, this does not mean that the disease is no longer present, but merely that the holder of the patients record no longer considers the condition as an aspect to be taken into account during care provision.</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1895,6 +1859,62 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>RegistrationData.RegistrationReason</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>RegistrationReason</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>RegistrationData.RegistrationReason</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NL: RedenVanVastleggen</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0..1</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>NL-CM:22.1.4</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Description of the reason for including the information in the patient record.</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
